--- a/ControlPanel/src/main/java/com/beerboard/cp/resources/TestCases1.xlsx
+++ b/ControlPanel/src/main/java/com/beerboard/cp/resources/TestCases1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="14025" windowHeight="3780"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="14970" windowHeight="6315"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -67,7 +68,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -419,21 +419,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="5.140625" collapsed="true"/>
-    <col min="2" max="4" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="7" max="9" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="11" max="13" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="4" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="9" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="13" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1">
